--- a/DATA_goal/Junction_Flooding_421.xlsx
+++ b/DATA_goal/Junction_Flooding_421.xlsx
@@ -759,103 +759,103 @@
         <v>44782.80555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.6</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.14</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.49</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.37</v>
+        <v>3.74</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.34</v>
+        <v>3.39</v>
       </c>
       <c r="G3" s="4" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="R3" s="4" t="n">
         <v>0.13</v>
       </c>
-      <c r="H3" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.01</v>
-      </c>
       <c r="S3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.41</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>1.49</v>
+        <v>14.86</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0.32</v>
+        <v>3.25</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.12</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.26</v>
+        <v>2.65</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.17</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.4</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.41</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.18</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.17</v>
+        <v>1.66</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.61</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.24</v>
+        <v>2.4</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.83</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0.29</v>
+        <v>2.89</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.1</v>
+        <v>0.98</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="4">
@@ -967,103 +967,103 @@
         <v>44782.81944444445</v>
       </c>
       <c r="B5" s="4" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="D5" s="4" t="n">
         <v>0.33</v>
       </c>
-      <c r="C5" s="4" t="n">
+      <c r="E5" s="4" t="n">
+        <v>7.08</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="S5" s="4" t="n">
         <v>0.26</v>
       </c>
-      <c r="D5" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.03</v>
-      </c>
       <c r="T5" s="4" t="n">
-        <v>3.32</v>
+        <v>33.24</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>0.68</v>
+        <v>6.81</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.24</v>
+        <v>2.36</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.43</v>
+        <v>4.35</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.25</v>
+        <v>2.5</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.41</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.31</v>
+        <v>3.13</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.21</v>
+        <v>2.11</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.19</v>
+        <v>1.92</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.23</v>
+        <v>2.28</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.31</v>
+        <v>3.06</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>0.53</v>
+        <v>5.3</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.14</v>
+        <v>1.43</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.29</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_421.xlsx
+++ b/DATA_goal/Junction_Flooding_421.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44782.79861111111</v>
+        <v>45102.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0</v>
+        <v>20.658</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0</v>
+        <v>14.028</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>4.08</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0</v>
+        <v>43.704</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0</v>
+        <v>35.637</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>16.257</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0</v>
+        <v>52.557</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0</v>
+        <v>25.014</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0</v>
+        <v>10.522</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0</v>
+        <v>16.084</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0</v>
+        <v>17.263</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0</v>
+        <v>18.024</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0</v>
+        <v>5.19</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0</v>
+        <v>16.166</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0</v>
+        <v>22.644</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0</v>
+        <v>13.689</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0</v>
+        <v>3.709</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>2.453</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>0</v>
+        <v>238.72</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0</v>
+        <v>44.979</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0</v>
+        <v>14.922</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0</v>
+        <v>29.658</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0</v>
+        <v>15.316</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0</v>
+        <v>2.936</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0</v>
+        <v>26.039</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0</v>
+        <v>13.181</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0</v>
+        <v>11.919</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0</v>
+        <v>13.951</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0</v>
+        <v>17.711</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0</v>
+        <v>3.458</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0</v>
+        <v>46.546</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0</v>
+        <v>8.337999999999999</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0</v>
+        <v>18.656</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44782.80555555555</v>
+        <v>45102.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.6</v>
+        <v>23.541</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.14</v>
+        <v>16.982</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.49</v>
+        <v>2.047</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3.74</v>
+        <v>50.805</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.39</v>
+        <v>41.68</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.27</v>
+        <v>18.525</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>3.15</v>
+        <v>70.878</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.94</v>
+        <v>28.505</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.99</v>
+        <v>12.477</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.46</v>
+        <v>18.64</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.74</v>
+        <v>20.381</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.8</v>
+        <v>21.369</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.11</v>
+        <v>5.918</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.23</v>
+        <v>18.422</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.89</v>
+        <v>26.097</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.9</v>
+        <v>15.636</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.663</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.41</v>
+        <v>1.291</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>14.86</v>
+        <v>273.097</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>3.25</v>
+        <v>51.526</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.12</v>
+        <v>17.004</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.65</v>
+        <v>34.404</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.17</v>
+        <v>18.101</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.4</v>
+        <v>2.921</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.41</v>
+        <v>34.387</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.18</v>
+        <v>15.02</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.66</v>
+        <v>13.45</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.61</v>
+        <v>15.781</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>2.4</v>
+        <v>21.162</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.83</v>
+        <v>1.266</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>2.89</v>
+        <v>64.35299999999999</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.98</v>
+        <v>9.561999999999999</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.44</v>
+        <v>21.259</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44782.8125</v>
+        <v>45102.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0</v>
+        <v>6.726</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0</v>
+        <v>4.593</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0</v>
+        <v>0.996</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0</v>
+        <v>14.404</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0</v>
+        <v>11.642</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0</v>
+        <v>5.294</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>0</v>
+        <v>26.097</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0</v>
+        <v>8.144</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0</v>
+        <v>3.481</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0</v>
+        <v>5.085</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0</v>
+        <v>5.813</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0</v>
+        <v>5.997</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0</v>
+        <v>1.698</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0</v>
+        <v>5.263</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0</v>
+        <v>7.411</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0</v>
+        <v>4.668</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0</v>
+        <v>0.991</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0</v>
+        <v>0.536</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>0</v>
+        <v>72.83199999999999</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0</v>
+        <v>14.975</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0</v>
+        <v>4.858</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0</v>
+        <v>9.811</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0</v>
+        <v>5.142</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0</v>
+        <v>1.056</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0</v>
+        <v>11.815</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0</v>
+        <v>4.291</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0</v>
+        <v>3.964</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0</v>
+        <v>4.629</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0</v>
+        <v>5.936</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0</v>
+        <v>0.773</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>0</v>
+        <v>23.997</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0</v>
+        <v>2.658</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0</v>
+        <v>6.076</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44782.81944444445</v>
+        <v>45102.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>3.32</v>
+        <v>13.45</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>2.56</v>
+        <v>9.76</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.33</v>
+        <v>1.01</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>7.08</v>
+        <v>29.11</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>6.36</v>
+        <v>23.84</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>3.48</v>
+        <v>10.59</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>6.52</v>
+        <v>39.71</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>3.92</v>
+        <v>16.29</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.78</v>
+        <v>7.15</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>2.82</v>
+        <v>10.62</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>3.07</v>
+        <v>11.72</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>3.33</v>
+        <v>12.28</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.83</v>
+        <v>3.38</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>2.55</v>
+        <v>10.53</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>3.54</v>
+        <v>14.9</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>2.22</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.14</v>
+        <v>0.8</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.26</v>
+        <v>0.63</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>33.24</v>
+        <v>152.89</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>6.81</v>
+        <v>29.37</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>2.36</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>4.35</v>
+        <v>19.61</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>2.5</v>
+        <v>10.37</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.41</v>
+        <v>1.67</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>3.13</v>
+        <v>19.17</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>2.11</v>
+        <v>8.58</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.92</v>
+        <v>7.68</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>2.28</v>
+        <v>9.01</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>3.06</v>
+        <v>12.2</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>5.3</v>
+        <v>35.77</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1.43</v>
+        <v>5.45</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>2.92</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44782.82637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>9.220000000000001</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>8.039999999999999</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>5.11</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>3.61</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>4.17</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>44.47</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>9.18</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>6.11</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>5.54</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>9.91</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>3.81</v>
+        <v>12.15</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_421.xlsx
+++ b/DATA_goal/Junction_Flooding_421.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
-    <col width="8" customWidth="1" min="5" max="5"/>
-    <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
-    <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="9" customWidth="1" min="20" max="20"/>
-    <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
-    <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
-    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45102.50694444445</v>
+        <v>44782.79861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>20.658</v>
+        <v>0</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>14.028</v>
+        <v>0</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.08</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>43.704</v>
+        <v>0</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>35.637</v>
+        <v>0</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>16.257</v>
+        <v>0</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>52.557</v>
+        <v>0</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>25.014</v>
+        <v>0</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>10.522</v>
+        <v>0</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>16.084</v>
+        <v>0</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>17.263</v>
+        <v>0</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>18.024</v>
+        <v>0</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.19</v>
+        <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>16.166</v>
+        <v>0</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>22.644</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>13.689</v>
+        <v>0</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.709</v>
+        <v>0</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.453</v>
+        <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>238.72</v>
+        <v>0</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>44.979</v>
+        <v>0</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>14.922</v>
+        <v>0</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>29.658</v>
+        <v>0</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>15.316</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.936</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>26.039</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>13.181</v>
+        <v>0</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>11.919</v>
+        <v>0</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>13.951</v>
+        <v>0</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>17.711</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.458</v>
+        <v>0</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>46.546</v>
+        <v>0</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>8.337999999999999</v>
+        <v>0</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>18.656</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45102.51388888889</v>
+        <v>44782.80555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>23.541</v>
+        <v>1.604</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>16.982</v>
+        <v>1.138</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>2.047</v>
+        <v>0.493</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>50.805</v>
+        <v>3.745</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>41.68</v>
+        <v>3.385</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>18.525</v>
+        <v>1.274</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>70.878</v>
+        <v>3.152</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>28.505</v>
+        <v>1.936</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>12.477</v>
+        <v>0.987</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>18.64</v>
+        <v>1.462</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>20.381</v>
+        <v>1.74</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>21.369</v>
+        <v>1.795</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>5.918</v>
+        <v>1.107</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>18.422</v>
+        <v>1.226</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>26.097</v>
+        <v>1.89</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>15.636</v>
+        <v>0.903</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.663</v>
+        <v>0.129</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.291</v>
+        <v>0.412</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>273.097</v>
+        <v>14.862</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>51.526</v>
+        <v>3.248</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>17.004</v>
+        <v>1.117</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>34.404</v>
+        <v>2.649</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>18.101</v>
+        <v>1.167</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.921</v>
+        <v>0.396</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>34.387</v>
+        <v>1.408</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>15.02</v>
+        <v>1.175</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>13.45</v>
+        <v>1.657</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>15.781</v>
+        <v>1.61</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>21.162</v>
+        <v>2.399</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.266</v>
+        <v>0.834</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>64.35299999999999</v>
+        <v>2.894</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>9.561999999999999</v>
+        <v>0.977</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>21.259</v>
+        <v>1.444</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45102.52083333334</v>
+        <v>44782.8125</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>6.726</v>
+        <v>0</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>4.593</v>
+        <v>0</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.996</v>
+        <v>0</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>14.404</v>
+        <v>0</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>11.642</v>
+        <v>0</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>5.294</v>
+        <v>0</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>26.097</v>
+        <v>0</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>8.144</v>
+        <v>0</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>3.481</v>
+        <v>0</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>5.085</v>
+        <v>0</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>5.813</v>
+        <v>0</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>5.997</v>
+        <v>0</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.698</v>
+        <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>5.263</v>
+        <v>0</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>7.411</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>4.668</v>
+        <v>0</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.991</v>
+        <v>0</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.536</v>
+        <v>0</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>72.83199999999999</v>
+        <v>0</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>14.975</v>
+        <v>0</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>4.858</v>
+        <v>0</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>9.811</v>
+        <v>0</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>5.142</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.056</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>11.815</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>4.291</v>
+        <v>0</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>3.964</v>
+        <v>0</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>4.629</v>
+        <v>0</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>5.936</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.773</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>23.997</v>
+        <v>0</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.658</v>
+        <v>0</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>6.076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45102.52777777778</v>
+        <v>44782.81944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>13.45</v>
+        <v>3.316</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>9.76</v>
+        <v>2.556</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.01</v>
+        <v>0.333</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>29.11</v>
+        <v>7.079</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>23.84</v>
+        <v>6.356</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>10.59</v>
+        <v>3.484</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>39.71</v>
+        <v>6.517</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>16.29</v>
+        <v>3.923</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>7.15</v>
+        <v>1.78</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>10.62</v>
+        <v>2.819</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>11.72</v>
+        <v>3.07</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>12.28</v>
+        <v>3.328</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.38</v>
+        <v>0.827</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>10.53</v>
+        <v>2.546</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>14.9</v>
+        <v>3.537</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>8.970000000000001</v>
+        <v>2.217</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.8</v>
+        <v>0.139</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.63</v>
+        <v>0.26</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>152.89</v>
+        <v>33.241</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>29.37</v>
+        <v>6.808</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>9.720000000000001</v>
+        <v>2.357</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>19.61</v>
+        <v>4.349</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>10.37</v>
+        <v>2.497</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.67</v>
+        <v>0.408</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>19.17</v>
+        <v>3.13</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>8.58</v>
+        <v>2.109</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>7.68</v>
+        <v>1.918</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>9.01</v>
+        <v>2.281</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>12.2</v>
+        <v>3.059</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.017</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>35.77</v>
+        <v>5.297</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.45</v>
+        <v>1.432</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>12.15</v>
+        <v>2.923</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44782.82637731481</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>9.220000000000001</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>44.47</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>9.18</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>3.81</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_421.xlsx
+++ b/DATA_goal/Junction_Flooding_421.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44782.79861111111</v>
+        <v>45102.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0</v>
+        <v>20.658</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0</v>
+        <v>14.028</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>4.08</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0</v>
+        <v>43.704</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0</v>
+        <v>35.637</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>16.257</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0</v>
+        <v>52.557</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0</v>
+        <v>25.014</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0</v>
+        <v>10.522</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0</v>
+        <v>16.084</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0</v>
+        <v>17.263</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0</v>
+        <v>18.024</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0</v>
+        <v>5.19</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0</v>
+        <v>16.166</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0</v>
+        <v>22.644</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0</v>
+        <v>13.689</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0</v>
+        <v>3.709</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>2.453</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>0</v>
+        <v>238.72</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0</v>
+        <v>44.979</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0</v>
+        <v>14.922</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0</v>
+        <v>29.658</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0</v>
+        <v>15.316</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0</v>
+        <v>2.936</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0</v>
+        <v>26.039</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0</v>
+        <v>13.181</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0</v>
+        <v>11.919</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0</v>
+        <v>13.951</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0</v>
+        <v>17.711</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0</v>
+        <v>3.458</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0</v>
+        <v>46.546</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0</v>
+        <v>8.337999999999999</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0</v>
+        <v>18.656</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44782.80555555555</v>
+        <v>45102.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.604</v>
+        <v>23.541</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.138</v>
+        <v>16.982</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.493</v>
+        <v>2.047</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3.745</v>
+        <v>50.805</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.385</v>
+        <v>41.68</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.274</v>
+        <v>18.525</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>3.152</v>
+        <v>70.878</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.936</v>
+        <v>28.505</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.987</v>
+        <v>12.477</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.462</v>
+        <v>18.64</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.74</v>
+        <v>20.381</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.795</v>
+        <v>21.369</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.107</v>
+        <v>5.918</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.226</v>
+        <v>18.422</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.89</v>
+        <v>26.097</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.903</v>
+        <v>15.636</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.129</v>
+        <v>1.663</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.412</v>
+        <v>1.291</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>14.862</v>
+        <v>273.097</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>3.248</v>
+        <v>51.526</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.117</v>
+        <v>17.004</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.649</v>
+        <v>34.404</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.167</v>
+        <v>18.101</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.396</v>
+        <v>2.921</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.408</v>
+        <v>34.387</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.175</v>
+        <v>15.02</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.657</v>
+        <v>13.45</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.61</v>
+        <v>15.781</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>2.399</v>
+        <v>21.162</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.834</v>
+        <v>1.266</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>2.894</v>
+        <v>64.35299999999999</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.977</v>
+        <v>9.561999999999999</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.444</v>
+        <v>21.259</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44782.8125</v>
+        <v>45102.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0</v>
+        <v>6.726</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0</v>
+        <v>4.593</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0</v>
+        <v>0.996</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0</v>
+        <v>14.404</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0</v>
+        <v>11.642</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0</v>
+        <v>5.294</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>0</v>
+        <v>26.097</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0</v>
+        <v>8.144</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0</v>
+        <v>3.481</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0</v>
+        <v>5.085</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0</v>
+        <v>5.813</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0</v>
+        <v>5.997</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0</v>
+        <v>1.698</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0</v>
+        <v>5.263</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0</v>
+        <v>7.411</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0</v>
+        <v>4.668</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0</v>
+        <v>0.991</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0</v>
+        <v>0.536</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>0</v>
+        <v>72.83199999999999</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0</v>
+        <v>14.975</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0</v>
+        <v>4.858</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0</v>
+        <v>9.811</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0</v>
+        <v>5.142</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0</v>
+        <v>1.056</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0</v>
+        <v>11.815</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0</v>
+        <v>4.291</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0</v>
+        <v>3.964</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0</v>
+        <v>4.629</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0</v>
+        <v>5.936</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0</v>
+        <v>0.773</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>0</v>
+        <v>23.997</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0</v>
+        <v>2.658</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0</v>
+        <v>6.076</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44782.81944444445</v>
+        <v>45102.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>3.316</v>
+        <v>13.45</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>2.556</v>
+        <v>9.76</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.333</v>
+        <v>1.01</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>7.079</v>
+        <v>29.11</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>6.356</v>
+        <v>23.84</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>3.484</v>
+        <v>10.59</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>6.517</v>
+        <v>39.71</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>3.923</v>
+        <v>16.29</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.78</v>
+        <v>7.15</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>2.819</v>
+        <v>10.62</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>3.07</v>
+        <v>11.72</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>3.328</v>
+        <v>12.28</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.827</v>
+        <v>3.38</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>2.546</v>
+        <v>10.53</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>3.537</v>
+        <v>14.9</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>2.217</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.139</v>
+        <v>0.8</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.26</v>
+        <v>0.63</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>33.241</v>
+        <v>152.89</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>6.808</v>
+        <v>29.37</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>2.357</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>4.349</v>
+        <v>19.61</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>2.497</v>
+        <v>10.37</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.408</v>
+        <v>1.67</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>3.13</v>
+        <v>19.17</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>2.109</v>
+        <v>8.58</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.918</v>
+        <v>7.68</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>2.281</v>
+        <v>9.01</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>3.059</v>
+        <v>12.2</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.017</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>5.297</v>
+        <v>35.77</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1.432</v>
+        <v>5.45</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>2.923</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44782.82637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>9.220000000000001</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>8.039999999999999</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>5.11</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>3.61</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>4.17</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>44.47</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>9.18</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>6.11</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>5.54</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>9.91</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>3.81</v>
+        <v>12.15</v>
       </c>
     </row>
   </sheetData>
